--- a/src/test/resources/TestData/PO.xlsx
+++ b/src/test/resources/TestData/PO.xlsx
@@ -300,6 +300,10 @@
     <sheet name="PO_100013" r:id="rId293" sheetId="290"/>
     <sheet name="PO_100014" r:id="rId294" sheetId="291"/>
     <sheet name="PO_17" r:id="rId295" sheetId="292"/>
+    <sheet name="PO_100015" r:id="rId296" sheetId="293"/>
+    <sheet name="PO_100016" r:id="rId297" sheetId="294"/>
+    <sheet name="PO_100017" r:id="rId298" sheetId="295"/>
+    <sheet name="PO_100018" r:id="rId299" sheetId="296"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -311,7 +315,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10079" uniqueCount="1119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10223" uniqueCount="1126">
   <si>
     <t xml:space="preserve">PO Number</t>
   </si>
@@ -3668,6 +3672,27 @@
   </si>
   <si>
     <t>JUICE TOMATO 1000 ML</t>
+  </si>
+  <si>
+    <t>100015</t>
+  </si>
+  <si>
+    <t>23-January-2026</t>
+  </si>
+  <si>
+    <t>100016</t>
+  </si>
+  <si>
+    <t>100017</t>
+  </si>
+  <si>
+    <t>7HKC0012</t>
+  </si>
+  <si>
+    <t>DUSTER YELLOW BIG 1 NOS</t>
+  </si>
+  <si>
+    <t>100018</t>
   </si>
 </sst>
 </file>
@@ -32209,6 +32234,554 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet293.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1119</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>316</v>
+      </c>
+      <c r="B5" t="s">
+        <v>317</v>
+      </c>
+      <c r="C5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>320</v>
+      </c>
+      <c r="B7" t="s">
+        <v>321</v>
+      </c>
+      <c r="C7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>227</v>
+      </c>
+      <c r="B8" t="s">
+        <v>228</v>
+      </c>
+      <c r="C8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>166</v>
+      </c>
+      <c r="B9" t="s">
+        <v>167</v>
+      </c>
+      <c r="C9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet294.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1121</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>138</v>
+      </c>
+      <c r="B5" t="s">
+        <v>139</v>
+      </c>
+      <c r="C5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>330</v>
+      </c>
+      <c r="B6" t="s">
+        <v>331</v>
+      </c>
+      <c r="C6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>141</v>
+      </c>
+      <c r="B7" t="s">
+        <v>142</v>
+      </c>
+      <c r="C7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>323</v>
+      </c>
+      <c r="B8" t="s">
+        <v>324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>334</v>
+      </c>
+      <c r="B9" t="s">
+        <v>335</v>
+      </c>
+      <c r="C9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet295.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1122</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1123</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>435</v>
+      </c>
+      <c r="B6" t="s">
+        <v>436</v>
+      </c>
+      <c r="C6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>215</v>
+      </c>
+      <c r="B7" t="s">
+        <v>216</v>
+      </c>
+      <c r="C7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>229</v>
+      </c>
+      <c r="B8" t="s">
+        <v>230</v>
+      </c>
+      <c r="C8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>606</v>
+      </c>
+      <c r="B9" t="s">
+        <v>607</v>
+      </c>
+      <c r="C9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet296.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1125</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>358</v>
+      </c>
+      <c r="B5" t="s">
+        <v>359</v>
+      </c>
+      <c r="C5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>225</v>
+      </c>
+      <c r="B6" t="s">
+        <v>226</v>
+      </c>
+      <c r="C6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>153</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>379</v>
+      </c>
+      <c r="B8" t="s">
+        <v>380</v>
+      </c>
+      <c r="C8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>416</v>
+      </c>
+      <c r="B9" t="s">
+        <v>417</v>
+      </c>
+      <c r="C9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H9"/>

--- a/src/test/resources/TestData/PO.xlsx
+++ b/src/test/resources/TestData/PO.xlsx
@@ -304,6 +304,8 @@
     <sheet name="PO_100016" r:id="rId297" sheetId="294"/>
     <sheet name="PO_100017" r:id="rId298" sheetId="295"/>
     <sheet name="PO_100018" r:id="rId299" sheetId="296"/>
+    <sheet name="PO_107195" r:id="rId300" sheetId="297"/>
+    <sheet name="PO_100020" r:id="rId301" sheetId="298"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -315,7 +317,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10223" uniqueCount="1126">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10283" uniqueCount="1136">
   <si>
     <t xml:space="preserve">PO Number</t>
   </si>
@@ -3693,6 +3695,36 @@
   </si>
   <si>
     <t>100018</t>
+  </si>
+  <si>
+    <t>107195</t>
+  </si>
+  <si>
+    <t>29-January-2026</t>
+  </si>
+  <si>
+    <t>27500.00</t>
+  </si>
+  <si>
+    <t>LIQU228</t>
+  </si>
+  <si>
+    <t>Beer Budweiser 500 ML Can</t>
+  </si>
+  <si>
+    <t>LIQU229</t>
+  </si>
+  <si>
+    <t>Beer Carlsberg 330 Ml Bottle</t>
+  </si>
+  <si>
+    <t>100020</t>
+  </si>
+  <si>
+    <t>5STP0080</t>
+  </si>
+  <si>
+    <t>MATERIAL RETURNABLE REGISTER1 NOS</t>
   </si>
 </sst>
 </file>
@@ -32782,6 +32814,238 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet297.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="G2" t="s">
+        <v>1128</v>
+      </c>
+      <c r="H2" t="s">
+        <v>751</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1129</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1130</v>
+      </c>
+      <c r="C5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D5" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>1131</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet298.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <dimension ref="A1:H9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.0"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B1" t="s">
+        <v>33</v>
+      </c>
+      <c r="C1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F1" t="s">
+        <v>36</v>
+      </c>
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+      <c r="H1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="s">
+        <v>1133</v>
+      </c>
+      <c r="C2" t="s">
+        <v>1127</v>
+      </c>
+      <c r="F2" t="s">
+        <v>748</v>
+      </c>
+      <c r="G2" t="s">
+        <v>748</v>
+      </c>
+      <c r="H2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" t="s">
+        <v>44</v>
+      </c>
+      <c r="C4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D4" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>1134</v>
+      </c>
+      <c r="B5" t="s">
+        <v>1135</v>
+      </c>
+      <c r="C5" t="s">
+        <v>691</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>151</v>
+      </c>
+      <c r="B6" t="s">
+        <v>152</v>
+      </c>
+      <c r="C6" t="s">
+        <v>691</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>385</v>
+      </c>
+      <c r="B7" t="s">
+        <v>386</v>
+      </c>
+      <c r="C7" t="s">
+        <v>691</v>
+      </c>
+      <c r="D7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>785</v>
+      </c>
+      <c r="B8" t="s">
+        <v>457</v>
+      </c>
+      <c r="C8" t="s">
+        <v>691</v>
+      </c>
+      <c r="D8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>618</v>
+      </c>
+      <c r="B9" t="s">
+        <v>619</v>
+      </c>
+      <c r="C9" t="s">
+        <v>691</v>
+      </c>
+      <c r="D9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <dimension ref="A1:H9"/>
